--- a/uploads/bulkimport/asset_details_format.xlsx
+++ b/uploads/bulkimport/asset_details_format.xlsx
@@ -448,10 +448,10 @@
       <formula1>"Plant &amp; Machinary,Land &amp; Building,Computer,Printer and Scanner,Furniture and Fixtures,Electrical &amp; fitting"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Marutham,Rasi Jewellers"</formula1>
+      <formula1>"Feather Technology,Marutham"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Pondicherry,Vandavasi,Cheiyar"</formula1>
+      <formula1>"Pondicherry,Vandavasi"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
